--- a/课程项目评分.xlsx
+++ b/课程项目评分.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>序号</t>
   </si>
@@ -70,7 +70,7 @@
     <t>李乐 时文胜 石马光 朱家骏 赵彬 朱赛丰 孙超 汤业军</t>
   </si>
   <si>
-    <t>没有拍录像啊，不知道最后电机转了没有。</t>
+    <t>编写了部分程序，美中不足是功能上没有实质的增加</t>
   </si>
   <si>
     <t>2013330300147 朱路嘉
@@ -93,7 +93,8 @@
     <t>周琳 2013330300007
 雷承才 2013330300083
 王靖凯 2013330300094
-傅志立 2013330300079</t>
+傅志立 2013330300079
+吴剑   施逸熵   朱浩奇  孙丕</t>
   </si>
   <si>
     <t>报告中没有体现怎么做的，以及结果如何。</t>
@@ -114,7 +115,7 @@
     <t>自成系统，还不错。</t>
   </si>
   <si>
-    <t>郭涛 费秋洋 周永飞 陈伦 戴昱昊</t>
+    <t>张晓伟 郭涛 费秋洋 周永飞 陈伦 戴昱昊</t>
   </si>
   <si>
     <t>完成质量好</t>
@@ -190,6 +191,18 @@
   <si>
     <t>还不错，虽然不是按照正规的继电器电路来设计的，没有视频，但是有试验时候的照片。</t>
   </si>
+  <si>
+    <t>吴泽炜</t>
+  </si>
+  <si>
+    <t>比较简单，而且报告中净代码</t>
+  </si>
+  <si>
+    <t>董文杰</t>
+  </si>
+  <si>
+    <t>只有代码，实验现象测试等描述不清楚</t>
+  </si>
 </sst>
 </file>
 
@@ -197,11 +210,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,7 +230,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,104 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -337,9 +358,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,7 +374,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,49 +389,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,122 +573,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -574,6 +594,50 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,35 +681,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -657,6 +692,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,152 +724,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,7 +882,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1156,16 +1215,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="4.3" customWidth="1"/>
-    <col min="2" max="2" width="35.1" customWidth="1"/>
+    <col min="2" max="2" width="38.7" customWidth="1"/>
     <col min="8" max="8" width="16.6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1215,10 +1274,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="2">
-        <f>SUM(C2:F2)</f>
+        <f t="shared" ref="G2:G13" si="0">SUM(C2:F2)</f>
         <v>86</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1242,14 +1301,14 @@
         <v>3</v>
       </c>
       <c r="G3" s="2">
-        <f>SUM(C3:F3)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="25.5" spans="1:8">
+    <row r="4" ht="38.25" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1260,19 +1319,19 @@
         <v>80</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
-        <f>SUM(C4:F4)</f>
-        <v>80</v>
-      </c>
-      <c r="H4" s="4" t="s">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1296,14 +1355,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <f>SUM(C5:F5)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="51" spans="1:8">
+    <row r="6" ht="63.75" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1323,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f>SUM(C6:F6)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1344,10 +1403,10 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f>SUM(C7:F7)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1371,10 +1430,10 @@
         <v>3</v>
       </c>
       <c r="G8" s="2">
-        <f>SUM(C8:F8)</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1398,10 +1457,10 @@
         <v>2</v>
       </c>
       <c r="G9" s="2">
-        <f>SUM(C9:F9)</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1425,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <f>SUM(C10:F10)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1452,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <f>SUM(C11:F11)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1479,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="2">
-        <f>SUM(C12:F12)</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -1506,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <f>SUM(C13:F13)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1535,7 +1594,7 @@
       <c r="G14" s="2">
         <v>80</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1561,7 +1620,7 @@
       <c r="G15" s="2">
         <v>75</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1587,7 +1646,7 @@
       <c r="G16" s="2">
         <v>80</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1627,35 +1686,87 @@
       <c r="G18" s="2">
         <v>75</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:8">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>80</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <v>5</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <f>SUM(C19:F19)</f>
         <v>86</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="20" ht="25.5" spans="1:8">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4">
+        <v>75</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>80</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" spans="1:8">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5">
+        <v>70</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>70</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
